--- a/medicine/Handicap/Hétérotaxie/Hétérotaxie.xlsx
+++ b/medicine/Handicap/Hétérotaxie/Hétérotaxie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rotaxie</t>
+          <t>Hétérotaxie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérotaxie est une malformation congénitale se traduisant par un mauvais placement des organes internes, pairs ou non, dans le thorax et/ou la cavité abdominale, par rapport à un axe de symétrie droite/gauche. L'hétérotaxie s'oppose au situs solitus, qui est un positionnement normal des organes.
 Le terme « hétérotaxie » signifie étymologiquement « positionnement différent » (heteros, différent ; taxos, positionnement).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rotaxie</t>
+          <t>Hétérotaxie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue différentes catégories d’hétérotaxie, selon que celle-ci concerne un ou plusieurs organes :
 le situs inversus ou situs totalis, inversion complète des organes internes « en miroir » par rapport à un sujet dit normal. Il n'y a aucune anomalie de fonction si la symétrie est parfaite ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rotaxie</t>
+          <t>Hétérotaxie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inversion des organes peut traduire soit une mauvaise plicature ou rotation lors de l'organogenèse, soit une symétrie anormale acquise. Par exemple, l'absence de rate ou bien des poumons droit et gauche composés de trois lobes chacun, associés à une hétérotaxie, traduiraient la présence de deux côtés droits, ou dextro-isomérisme. À l'inverse, une polysplénie associée à une hétérotaxie correspondrait à un dédoublement du côté gauche, ou lévo-isomérisme.
 La bilatéralité des viscères rencontrée dans le situs inversus chez l'homme est rarement complète ou exacte et des erreurs dans la plicature ou la rotation produisent souvent des malformations supplémentaires. 
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rotaxie</t>
+          <t>Hétérotaxie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Pathologies associées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérotaxie est souvent associée à d’autres pathologies, telles qu’une dyskinésie ou akinésie des battements des cils des cellules épithéliales des voies respiratoires et des flagelles des spermatozoïdes, ou bien une anomalie de développement de la ligne médiane (imperforation anale, anomalie vertébrale…)
 </t>
